--- a/biology/Médecine/Jules_Gill-Peterson/Jules_Gill-Peterson.xlsx
+++ b/biology/Médecine/Jules_Gill-Peterson/Jules_Gill-Peterson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Gill-Peterson est une historienne canadienne spécialisée dans l'histoire transgenre et dans l'histoire de l'enfance. Elle est professeure d'histoire à l'Université Johns-Hopkins.
-En 2018, elle contribue une intervention importante dans les histoires croisées de la médecine, de l'enfance et des personnes trans avec son livre Histories of the Transgender Child, qui documente l'omniprésence des enfants s'identifiant comme transgenres en Amérique du Nord bien avant le XXIe siècle[2]. Ce livre a reçu un Lambda Literary Award pour la littérature transgenre et le Children's Literature Association Book Award.
-Jules Gill-Peterson est une des éditrices en chef de la revue Transgender Studies Quarterly et a été chercheuse à l'American Council of Learned Societies et au Kinsey Institute. En 2020, elle a reçu un prix de recherche distingué du Chancelier de l'Université de Pittsburgh, où elle était auparavant membre du corps professoral[3]. Elle a obtenu sa licence à l'Université d'Ottawa en 2010 et son doctorat à l'Université Rutgers en 2015[4],[5].
-Contributrice au New York Times[6], elle a fait partie du groupe d'écrivaines qui ont critiqué la couverture des sujets liés aux enfants transgenres[7],[8]. Jules Gill-Peterson tient également un blog, Sad Brown Girl, où elle partage des éléments de ses recherches en cours[9].
+En 2018, elle contribue une intervention importante dans les histoires croisées de la médecine, de l'enfance et des personnes trans avec son livre Histories of the Transgender Child, qui documente l'omniprésence des enfants s'identifiant comme transgenres en Amérique du Nord bien avant le XXIe siècle. Ce livre a reçu un Lambda Literary Award pour la littérature transgenre et le Children's Literature Association Book Award.
+Jules Gill-Peterson est une des éditrices en chef de la revue Transgender Studies Quarterly et a été chercheuse à l'American Council of Learned Societies et au Kinsey Institute. En 2020, elle a reçu un prix de recherche distingué du Chancelier de l'Université de Pittsburgh, où elle était auparavant membre du corps professoral. Elle a obtenu sa licence à l'Université d'Ottawa en 2010 et son doctorat à l'Université Rutgers en 2015,.
+Contributrice au New York Times, elle a fait partie du groupe d'écrivaines qui ont critiqué la couverture des sujets liés aux enfants transgenres,. Jules Gill-Peterson tient également un blog, Sad Brown Girl, où elle partage des éléments de ses recherches en cours.
 </t>
         </is>
       </c>
